--- a/simulationData/1999_2019_CPI_historic_Australia.xlsx
+++ b/simulationData/1999_2019_CPI_historic_Australia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\gr4sp\experiments\simulationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A770CE7-9762-46B7-B65D-0ACCBAAA24BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4D214C-D344-4074-A6D0-C506D357B68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C3C364B-2581-4959-BC09-DE0E467F90C6}"/>
   </bookViews>
@@ -75,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,13 +124,14 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -447,12 +451,13 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1236,8 +1241,9 @@
         <f>AVERAGE(H2:H30)</f>
         <v>2.4280267070341026E-2</v>
       </c>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>8</v>
       </c>
@@ -1245,8 +1251,9 @@
         <f>MAX(H2:H30)</f>
         <v>4.6698872785829293E-2</v>
       </c>
-    </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>9</v>
       </c>
@@ -1254,8 +1261,9 @@
         <f>MIN(H2:H30)</f>
         <v>2.9985007496251548E-3</v>
       </c>
-    </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
         <v>11</v>
       </c>
@@ -1263,6 +1271,7 @@
         <f>MEDIAN(H2:H30)</f>
         <v>2.3282887077997749E-2</v>
       </c>
+      <c r="J35" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
